--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Victory.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Victory.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="75">
   <si>
     <t>STT</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>WP21120135S02428/00320014A4</t>
+  </si>
+  <si>
+    <t>ID tb mới : WP21120135S01346/0032002279</t>
   </si>
 </sst>
 </file>
@@ -725,6 +728,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -742,30 +769,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1077,7 +1080,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1109,41 +1112,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1188,58 +1191,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1264,23 +1267,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1305,7 +1308,9 @@
       <c r="G6" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="62" t="s">
+        <v>74</v>
+      </c>
       <c r="I6" s="63" t="s">
         <v>67</v>
       </c>
@@ -1332,7 +1337,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1363,7 +1368,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1392,7 +1397,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1421,7 +1426,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1450,7 +1455,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1479,7 +1484,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1508,7 +1513,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1539,7 +1544,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1568,7 +1573,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1597,7 +1602,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1626,7 +1631,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3342,13 +3347,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3360,6 +3358,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3403,39 +3408,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3480,58 +3485,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3556,23 +3561,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3598,7 +3603,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3629,7 +3634,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3658,7 +3663,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3687,7 +3692,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3716,7 +3721,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3745,7 +3750,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3774,7 +3779,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3805,7 +3810,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3834,7 +3839,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3863,7 +3868,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3892,7 +3897,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5608,6 +5613,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5619,13 +5631,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5669,39 +5674,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5746,58 +5751,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5822,23 +5827,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5864,7 +5869,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5895,7 +5900,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5924,7 +5929,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5953,7 +5958,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5982,7 +5987,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6011,7 +6016,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6040,7 +6045,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6071,7 +6076,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6100,7 +6105,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6129,7 +6134,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6158,7 +6163,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7874,6 +7879,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7885,13 +7897,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7935,39 +7940,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8012,58 +8017,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8088,23 +8093,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8130,7 +8135,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8161,7 +8166,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8190,7 +8195,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8219,7 +8224,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8248,7 +8253,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8277,7 +8282,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8306,7 +8311,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8337,7 +8342,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8366,7 +8371,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8395,7 +8400,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8424,7 +8429,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10140,6 +10145,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10151,13 +10163,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10201,39 +10206,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10278,58 +10283,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10354,23 +10359,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10396,7 +10401,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10427,7 +10432,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10456,7 +10461,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10485,7 +10490,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10514,7 +10519,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10543,7 +10548,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10572,7 +10577,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10603,7 +10608,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10632,7 +10637,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10661,7 +10666,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10690,7 +10695,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12406,6 +12411,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12417,13 +12429,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12467,39 +12472,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12544,58 +12549,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12620,23 +12625,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12662,7 +12667,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12693,7 +12698,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12722,7 +12727,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12751,7 +12756,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12780,7 +12785,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12809,7 +12814,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12838,7 +12843,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12869,7 +12874,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -12898,7 +12903,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -12927,7 +12932,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -12956,7 +12961,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14672,6 +14677,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14683,13 +14695,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14733,39 +14738,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14810,58 +14815,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -14886,23 +14891,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -14928,7 +14933,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -14959,7 +14964,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -14988,7 +14993,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15017,7 +15022,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15046,7 +15051,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15075,7 +15080,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15104,7 +15109,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15135,7 +15140,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15164,7 +15169,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15193,7 +15198,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15222,7 +15227,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -16938,6 +16943,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -16949,13 +16961,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16999,39 +17004,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17076,58 +17081,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17152,23 +17157,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17194,7 +17199,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17225,7 +17230,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17254,7 +17259,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17283,7 +17288,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17312,7 +17317,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17341,7 +17346,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17370,7 +17375,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17401,7 +17406,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17430,7 +17435,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17459,7 +17464,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17488,7 +17493,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19204,6 +19209,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19215,13 +19227,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19265,39 +19270,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19342,58 +19347,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19418,23 +19423,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19460,7 +19465,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19491,7 +19496,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19520,7 +19525,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19549,7 +19554,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19578,7 +19583,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19607,7 +19612,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19636,7 +19641,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19667,7 +19672,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19696,7 +19701,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19725,7 +19730,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19754,7 +19759,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -20985,13 +20990,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21003,6 +21001,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Victory.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Victory.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="80">
   <si>
     <t>STT</t>
   </si>
@@ -278,12 +278,27 @@
   <si>
     <t>ID tb mới : WP21120135S01346/0032002279</t>
   </si>
+  <si>
+    <t>WP21120135S02772/003200236E</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>V3.3.21.5_R22090903</t>
+  </si>
+  <si>
+    <t>Test lại thiết bị</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,8 +389,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,8 +415,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -493,11 +520,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -772,6 +825,42 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1079,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1318,21 +1407,21 @@
         <v>68</v>
       </c>
       <c r="K6" s="65"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66" t="s">
+      <c r="L6" s="95"/>
+      <c r="M6" s="95" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="64"/>
-      <c r="O6" s="64" t="s">
+      <c r="N6" s="96"/>
+      <c r="O6" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="66" t="s">
+      <c r="P6" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="64" t="s">
+      <c r="Q6" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="67" t="s">
+      <c r="R6" s="97" t="s">
         <v>72</v>
       </c>
       <c r="S6" s="3"/>
@@ -1349,24 +1438,52 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
+      <c r="B7" s="61">
+        <v>44886</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44887</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="3"/>
+      <c r="I7" s="63" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K7" s="93"/>
+      <c r="L7" s="101" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="103"/>
+      <c r="O7" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="102" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q7" s="104" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="94"/>
       <c r="T7" s="57"/>
       <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
@@ -1388,13 +1505,13 @@
       <c r="I8" s="51"/>
       <c r="J8" s="1"/>
       <c r="K8" s="38"/>
-      <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="39"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="2"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="98"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="98"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="100"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
       <c r="U8" s="79"/>
@@ -1749,7 +1866,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2250,7 +2367,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2282,7 +2399,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="13"/>
     </row>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Victory.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Victory.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="81">
   <si>
     <t>STT</t>
   </si>
@@ -292,6 +292,9 @@
   </si>
   <si>
     <t>BT</t>
+  </si>
+  <si>
+    <t>WP21120135S01108/00320022E6</t>
   </si>
 </sst>
 </file>
@@ -550,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -781,51 +784,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -862,6 +820,52 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1201,41 +1205,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="90"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1280,58 +1284,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="103" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1356,23 +1360,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1407,26 +1411,26 @@
         <v>68</v>
       </c>
       <c r="K6" s="65"/>
-      <c r="L6" s="95"/>
-      <c r="M6" s="95" t="s">
+      <c r="L6" s="80"/>
+      <c r="M6" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="N6" s="96"/>
-      <c r="O6" s="96" t="s">
+      <c r="N6" s="81"/>
+      <c r="O6" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="P6" s="95" t="s">
+      <c r="P6" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="Q6" s="96" t="s">
+      <c r="Q6" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="97" t="s">
+      <c r="R6" s="82" t="s">
         <v>72</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1463,29 +1467,29 @@
       <c r="J7" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K7" s="93"/>
-      <c r="L7" s="101" t="s">
+      <c r="K7" s="78"/>
+      <c r="L7" s="86" t="s">
         <v>77</v>
       </c>
-      <c r="M7" s="102" t="s">
+      <c r="M7" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="N7" s="103"/>
-      <c r="O7" s="102" t="s">
+      <c r="N7" s="88"/>
+      <c r="O7" s="87" t="s">
         <v>79</v>
       </c>
-      <c r="P7" s="102" t="s">
+      <c r="P7" s="87" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="104" t="s">
+      <c r="Q7" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="104" t="s">
+      <c r="R7" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="S7" s="94"/>
+      <c r="S7" s="79"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="99"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1495,26 +1499,44 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
+      <c r="B8" s="61">
+        <v>44894</v>
+      </c>
+      <c r="C8" s="54">
+        <v>44895</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="105" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>66</v>
+      </c>
       <c r="H8" s="62"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="63" t="s">
+        <v>67</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="38"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="98"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="99"/>
-      <c r="P8" s="98"/>
-      <c r="Q8" s="99"/>
-      <c r="R8" s="100"/>
+      <c r="L8" s="86" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="87" t="s">
+        <v>78</v>
+      </c>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="83"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="85"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="99"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1543,7 +1565,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="99"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1572,7 +1594,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="99"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1601,7 +1623,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="99"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1630,7 +1652,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1661,7 +1683,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="99"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1690,7 +1712,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="99"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1719,7 +1741,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="99"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1748,7 +1770,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="100"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3464,6 +3486,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3475,13 +3504,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3525,39 +3547,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3602,58 +3624,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="103" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3678,23 +3700,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3720,7 +3742,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3751,7 +3773,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="99"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3780,7 +3802,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="99"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3809,7 +3831,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="99"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3838,7 +3860,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="99"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3867,7 +3889,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="99"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3896,7 +3918,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3927,7 +3949,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="99"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3956,7 +3978,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="99"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3985,7 +4007,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="99"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4014,7 +4036,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="100"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5730,13 +5752,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5748,6 +5763,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5791,39 +5813,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5868,58 +5890,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="103" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5944,23 +5966,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5986,7 +6008,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6017,7 +6039,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="99"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6046,7 +6068,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="99"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6075,7 +6097,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="99"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6104,7 +6126,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="99"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6133,7 +6155,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="99"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6162,7 +6184,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6193,7 +6215,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="99"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6222,7 +6244,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="99"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6251,7 +6273,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="99"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6280,7 +6302,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="100"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7996,13 +8018,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8014,6 +8029,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8057,39 +8079,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8134,58 +8156,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="103" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8210,23 +8232,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8252,7 +8274,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8283,7 +8305,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="99"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8312,7 +8334,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="99"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8341,7 +8363,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="99"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8370,7 +8392,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="99"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8399,7 +8421,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="99"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8428,7 +8450,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8459,7 +8481,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="99"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8488,7 +8510,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="99"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8517,7 +8539,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="99"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8546,7 +8568,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="100"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10262,13 +10284,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10280,6 +10295,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10323,39 +10345,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10400,58 +10422,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="103" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10476,23 +10498,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10518,7 +10540,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10549,7 +10571,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="99"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10578,7 +10600,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="99"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10607,7 +10629,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="99"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10636,7 +10658,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="99"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10665,7 +10687,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="99"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10694,7 +10716,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10725,7 +10747,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="99"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10754,7 +10776,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="99"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10783,7 +10805,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="99"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10812,7 +10834,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="100"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12528,13 +12550,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12546,6 +12561,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12589,39 +12611,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12666,58 +12688,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="103" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12742,23 +12764,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12784,7 +12806,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12815,7 +12837,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="99"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12844,7 +12866,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="99"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12873,7 +12895,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="99"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12902,7 +12924,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="99"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12931,7 +12953,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="99"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12960,7 +12982,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -12991,7 +13013,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="99"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13020,7 +13042,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="99"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13049,7 +13071,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="99"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13078,7 +13100,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="100"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14794,13 +14816,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14812,6 +14827,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14855,39 +14877,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14932,58 +14954,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="103" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15008,23 +15030,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15050,7 +15072,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15081,7 +15103,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="99"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15110,7 +15132,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="99"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15139,7 +15161,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="99"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15168,7 +15190,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="99"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15197,7 +15219,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="99"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15226,7 +15248,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15257,7 +15279,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="99"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15286,7 +15308,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="99"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15315,7 +15337,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="99"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15344,7 +15366,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="100"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17060,13 +17082,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17078,6 +17093,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17121,39 +17143,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17198,58 +17220,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="83" t="s">
+      <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="81" t="s">
+      <c r="P4" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="83" t="s">
+      <c r="Q4" s="96" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="83" t="s">
+      <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="103" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17274,23 +17296,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="102"/>
+      <c r="Q5" s="97"/>
+      <c r="R5" s="97"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17316,7 +17338,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17347,7 +17369,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="99"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17376,7 +17398,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="99"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17405,7 +17427,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="99"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17434,7 +17456,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="99"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17463,7 +17485,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="99"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17492,7 +17514,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17523,7 +17545,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="99"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17552,7 +17574,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="99"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17581,7 +17603,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="99"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17610,7 +17632,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="100"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19326,13 +19348,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19344,6 +19359,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19387,39 +19409,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87"/>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
-      <c r="K1" s="87"/>
-      <c r="L1" s="87"/>
-      <c r="M1" s="87"/>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="87"/>
-      <c r="T1" s="87"/>
-      <c r="U1" s="87"/>
-      <c r="V1" s="87"/>
+      <c r="A1" s="91"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="91"/>
+      <c r="Q1" s="91"/>
+      <c r="R1" s="91"/>
+      <c r="S1" s="91"/>
+      <c r="T1" s="91"/>
+      <c r="U1" s="91"/>
+      <c r="V1" s="91"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19464,58 +19486,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="91" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="86" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="86" t="s">
+      <c r="K4" s="90" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="86"/>
-      <c r="M4" s="83" t="s">
+      <c r="L4" s="90"/>
+      <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="83" t="s">
+      <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="86" t="s">
+      <c r="O4" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="92" t="s">
+      <c r="P4" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="86" t="s">
+      <c r="Q4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="86" t="s">
+      <c r="R4" s="90" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="85" t="s">
+      <c r="S4" s="103" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="86" t="s">
+      <c r="V4" s="90" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="91"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19540,23 +19562,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="86"/>
+      <c r="J5" s="90"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="92"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="85"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="90"/>
+      <c r="P5" s="104"/>
+      <c r="Q5" s="90"/>
+      <c r="R5" s="90"/>
+      <c r="S5" s="103"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
+      <c r="U5" s="90"/>
+      <c r="V5" s="90"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19582,7 +19604,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="78" t="s">
+      <c r="U6" s="98" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19613,7 +19635,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="79"/>
+      <c r="U7" s="99"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19642,7 +19664,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="79"/>
+      <c r="U8" s="99"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19671,7 +19693,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="79"/>
+      <c r="U9" s="99"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19700,7 +19722,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="79"/>
+      <c r="U10" s="99"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19729,7 +19751,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="79"/>
+      <c r="U11" s="99"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19758,7 +19780,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="78" t="s">
+      <c r="U12" s="98" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19789,7 +19811,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="79"/>
+      <c r="U13" s="99"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19818,7 +19840,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="79"/>
+      <c r="U14" s="99"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19847,7 +19869,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="79"/>
+      <c r="U15" s="99"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19876,7 +19898,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="80"/>
+      <c r="U16" s="100"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21107,6 +21129,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21118,13 +21147,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Victory.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang11/2.XulyBH/XLBH2211_Victory.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="81">
   <si>
     <t>STT</t>
   </si>
@@ -820,6 +820,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -838,34 +863,9 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1172,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1205,41 +1205,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94" t="s">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="94"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1284,26 +1284,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
@@ -1313,7 +1313,7 @@
       <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="96" t="s">
@@ -1322,20 +1322,20 @@
       <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1360,7 +1360,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
@@ -1370,13 +1370,13 @@
       <c r="M5" s="97"/>
       <c r="N5" s="97"/>
       <c r="O5" s="97"/>
-      <c r="P5" s="102"/>
+      <c r="P5" s="95"/>
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
-      <c r="S5" s="103"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1430,7 +1430,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="98" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="S7" s="79"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="99"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1508,7 +1508,7 @@
       <c r="D8" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="E8" s="105" t="s">
+      <c r="E8" s="90" t="s">
         <v>80</v>
       </c>
       <c r="F8" s="37" t="s">
@@ -1530,13 +1530,21 @@
         <v>78</v>
       </c>
       <c r="N8" s="84"/>
-      <c r="O8" s="84"/>
-      <c r="P8" s="83"/>
-      <c r="Q8" s="84"/>
-      <c r="R8" s="85"/>
+      <c r="O8" s="84" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q8" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="85" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="99"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1565,7 +1573,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="99"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1594,7 +1602,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="99"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1623,7 +1631,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="99"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1652,7 +1660,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="98" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1683,7 +1691,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="99"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1712,7 +1720,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="99"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1741,7 +1749,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="99"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1770,7 +1778,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="100"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1888,7 +1896,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2389,7 +2397,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2421,7 +2429,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3486,13 +3494,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3504,6 +3505,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3547,39 +3555,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3624,26 +3632,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
@@ -3653,7 +3661,7 @@
       <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="96" t="s">
@@ -3662,20 +3670,20 @@
       <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3700,7 +3708,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -3710,13 +3718,13 @@
       <c r="M5" s="97"/>
       <c r="N5" s="97"/>
       <c r="O5" s="97"/>
-      <c r="P5" s="102"/>
+      <c r="P5" s="95"/>
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
-      <c r="S5" s="103"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3742,7 +3750,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="98" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3773,7 +3781,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="99"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3802,7 +3810,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="99"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3831,7 +3839,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="99"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3860,7 +3868,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="99"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3889,7 +3897,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="99"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3918,7 +3926,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="98" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3949,7 +3957,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="99"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3978,7 +3986,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="99"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4007,7 +4015,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="99"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4036,7 +4044,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="100"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5752,6 +5760,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5763,13 +5778,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5813,39 +5821,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5890,26 +5898,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
@@ -5919,7 +5927,7 @@
       <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="96" t="s">
@@ -5928,20 +5936,20 @@
       <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5966,7 +5974,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -5976,13 +5984,13 @@
       <c r="M5" s="97"/>
       <c r="N5" s="97"/>
       <c r="O5" s="97"/>
-      <c r="P5" s="102"/>
+      <c r="P5" s="95"/>
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
-      <c r="S5" s="103"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -6008,7 +6016,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="98" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -6039,7 +6047,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="99"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6068,7 +6076,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="99"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6097,7 +6105,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="99"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6126,7 +6134,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="99"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6155,7 +6163,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="99"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6184,7 +6192,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="98" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6215,7 +6223,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="99"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6244,7 +6252,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="99"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6273,7 +6281,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="99"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6302,7 +6310,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="100"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -8018,6 +8026,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -8029,13 +8044,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8079,39 +8087,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8156,26 +8164,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
@@ -8185,7 +8193,7 @@
       <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="96" t="s">
@@ -8194,20 +8202,20 @@
       <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8232,7 +8240,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -8242,13 +8250,13 @@
       <c r="M5" s="97"/>
       <c r="N5" s="97"/>
       <c r="O5" s="97"/>
-      <c r="P5" s="102"/>
+      <c r="P5" s="95"/>
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
-      <c r="S5" s="103"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8274,7 +8282,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="98" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8305,7 +8313,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="99"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8334,7 +8342,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="99"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8363,7 +8371,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="99"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8392,7 +8400,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="99"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8421,7 +8429,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="99"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8450,7 +8458,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="98" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8481,7 +8489,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="99"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8510,7 +8518,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="99"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8539,7 +8547,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="99"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8568,7 +8576,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="100"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10284,6 +10292,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10295,13 +10310,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10345,39 +10353,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10422,26 +10430,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
@@ -10451,7 +10459,7 @@
       <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="96" t="s">
@@ -10460,20 +10468,20 @@
       <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10498,7 +10506,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -10508,13 +10516,13 @@
       <c r="M5" s="97"/>
       <c r="N5" s="97"/>
       <c r="O5" s="97"/>
-      <c r="P5" s="102"/>
+      <c r="P5" s="95"/>
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
-      <c r="S5" s="103"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10540,7 +10548,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="98" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10571,7 +10579,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="99"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10600,7 +10608,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="99"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10629,7 +10637,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="99"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10658,7 +10666,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="99"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10687,7 +10695,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="99"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10716,7 +10724,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="98" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10747,7 +10755,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="99"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10776,7 +10784,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="99"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10805,7 +10813,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="99"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10834,7 +10842,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="100"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12550,6 +12558,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12561,13 +12576,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12611,39 +12619,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12688,26 +12696,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
@@ -12717,7 +12725,7 @@
       <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="96" t="s">
@@ -12726,20 +12734,20 @@
       <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12764,7 +12772,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -12774,13 +12782,13 @@
       <c r="M5" s="97"/>
       <c r="N5" s="97"/>
       <c r="O5" s="97"/>
-      <c r="P5" s="102"/>
+      <c r="P5" s="95"/>
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
-      <c r="S5" s="103"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12806,7 +12814,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="98" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12837,7 +12845,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="99"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12866,7 +12874,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="99"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12895,7 +12903,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="99"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12924,7 +12932,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="99"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12953,7 +12961,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="99"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12982,7 +12990,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="98" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13013,7 +13021,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="99"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13042,7 +13050,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="99"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13071,7 +13079,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="99"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13100,7 +13108,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="100"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -14816,6 +14824,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14827,13 +14842,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14877,39 +14885,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14954,26 +14962,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
@@ -14983,7 +14991,7 @@
       <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="96" t="s">
@@ -14992,20 +15000,20 @@
       <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15030,7 +15038,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -15040,13 +15048,13 @@
       <c r="M5" s="97"/>
       <c r="N5" s="97"/>
       <c r="O5" s="97"/>
-      <c r="P5" s="102"/>
+      <c r="P5" s="95"/>
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
-      <c r="S5" s="103"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15072,7 +15080,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="98" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15103,7 +15111,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="99"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15132,7 +15140,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="99"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15161,7 +15169,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="99"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15190,7 +15198,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="99"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15219,7 +15227,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="99"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15248,7 +15256,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="98" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15279,7 +15287,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="99"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15308,7 +15316,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="99"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15337,7 +15345,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="99"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15366,7 +15374,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="100"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17082,6 +17090,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17093,13 +17108,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17143,39 +17151,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17220,26 +17228,26 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
@@ -17249,7 +17257,7 @@
       <c r="O4" s="96" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="101" t="s">
+      <c r="P4" s="94" t="s">
         <v>14</v>
       </c>
       <c r="Q4" s="96" t="s">
@@ -17258,20 +17266,20 @@
       <c r="R4" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17296,7 +17304,7 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
@@ -17306,13 +17314,13 @@
       <c r="M5" s="97"/>
       <c r="N5" s="97"/>
       <c r="O5" s="97"/>
-      <c r="P5" s="102"/>
+      <c r="P5" s="95"/>
       <c r="Q5" s="97"/>
       <c r="R5" s="97"/>
-      <c r="S5" s="103"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17338,7 +17346,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="98" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17369,7 +17377,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="99"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17398,7 +17406,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="99"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17427,7 +17435,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="99"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17456,7 +17464,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="99"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17485,7 +17493,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="99"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17514,7 +17522,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="98" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17545,7 +17553,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="99"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17574,7 +17582,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="99"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17603,7 +17611,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="99"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17632,7 +17640,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="100"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19348,6 +19356,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19359,13 +19374,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19409,39 +19417,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91"/>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
+      <c r="A1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+      <c r="J1" s="100"/>
+      <c r="K1" s="100"/>
+      <c r="L1" s="100"/>
+      <c r="M1" s="100"/>
+      <c r="N1" s="100"/>
+      <c r="O1" s="100"/>
+      <c r="P1" s="100"/>
+      <c r="Q1" s="100"/>
+      <c r="R1" s="100"/>
+      <c r="S1" s="100"/>
+      <c r="T1" s="100"/>
+      <c r="U1" s="100"/>
+      <c r="V1" s="100"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19486,58 +19494,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="95" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="90" t="s">
+      <c r="A4" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="90" t="s">
+      <c r="K4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="90"/>
+      <c r="L4" s="99"/>
       <c r="M4" s="96" t="s">
         <v>42</v>
       </c>
       <c r="N4" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="104" t="s">
+      <c r="P4" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="90" t="s">
+      <c r="R4" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="103" t="s">
+      <c r="S4" s="98" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="90" t="s">
+      <c r="U4" s="99" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="90" t="s">
+      <c r="V4" s="99" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="95"/>
+      <c r="A5" s="104"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19562,7 +19570,7 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="90"/>
+      <c r="J5" s="99"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
@@ -19571,14 +19579,14 @@
       </c>
       <c r="M5" s="97"/>
       <c r="N5" s="97"/>
-      <c r="O5" s="90"/>
-      <c r="P5" s="104"/>
-      <c r="Q5" s="90"/>
-      <c r="R5" s="90"/>
-      <c r="S5" s="103"/>
+      <c r="O5" s="99"/>
+      <c r="P5" s="105"/>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
+      <c r="S5" s="98"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="90"/>
-      <c r="V5" s="90"/>
+      <c r="U5" s="99"/>
+      <c r="V5" s="99"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19604,7 +19612,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="98" t="s">
+      <c r="U6" s="91" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19635,7 +19643,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="99"/>
+      <c r="U7" s="92"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19664,7 +19672,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="99"/>
+      <c r="U8" s="92"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19693,7 +19701,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="99"/>
+      <c r="U9" s="92"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19722,7 +19730,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="99"/>
+      <c r="U10" s="92"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19751,7 +19759,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="99"/>
+      <c r="U11" s="92"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19780,7 +19788,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="98" t="s">
+      <c r="U12" s="91" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19811,7 +19819,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="99"/>
+      <c r="U13" s="92"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19840,7 +19848,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="99"/>
+      <c r="U14" s="92"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19869,7 +19877,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="99"/>
+      <c r="U15" s="92"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19898,7 +19906,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="100"/>
+      <c r="U16" s="93"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21129,13 +21137,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21147,6 +21148,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
